--- a/DATA FILES/Extracted_Data/ar_1985.xlsx
+++ b/DATA FILES/Extracted_Data/ar_1985.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I260"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,42 +434,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>AVEIRO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>06/10/1985</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>APU</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>22735</v>
-      </c>
-      <c r="H1" t="n">
-        <v>6.449999809265137</v>
-      </c>
-      <c r="I1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DIST_CONC_FREG</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T_ELEI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D_ELEI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SIGLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T_DADOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VOTOS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_VOTOS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MANDATOS</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -481,7 +501,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -490,13 +510,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>47501</v>
+        <v>22735</v>
       </c>
       <c r="H2" t="n">
-        <v>13.47999954223633</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,13 +549,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>738</v>
+        <v>47501</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2099999934434891</v>
+        <v>13.47999954223633</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -559,7 +579,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,10 +588,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1348</v>
+        <v>738</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3799999952316284</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -598,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,10 +627,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2567</v>
+        <v>1348</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7300000190734863</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -637,7 +657,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,10 +666,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1225</v>
+        <v>2567</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3499999940395355</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -676,7 +696,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,13 +705,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>47026</v>
+        <v>1225</v>
       </c>
       <c r="H7" t="n">
-        <v>13.35000038146973</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -715,7 +735,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -724,13 +744,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>80849</v>
+        <v>47026</v>
       </c>
       <c r="H8" t="n">
-        <v>22.95000076293945</v>
+        <v>13.35000038146973</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +774,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -763,13 +783,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>135247</v>
+        <v>80849</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38999938964844</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -793,7 +813,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -802,13 +822,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2204</v>
+        <v>135247</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6299999952316284</v>
+        <v>38.38999938964844</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -832,7 +852,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -841,10 +861,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2791</v>
+        <v>2204</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7900000214576721</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -852,11 +872,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BEJA</t>
+          <t>AVEIRO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -871,7 +891,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -880,13 +900,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>50814</v>
+        <v>2791</v>
       </c>
       <c r="H12" t="n">
-        <v>44.86999893188477</v>
+        <v>0.7900000214576721</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -910,7 +930,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -919,13 +939,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2471</v>
+        <v>50814</v>
       </c>
       <c r="H13" t="n">
-        <v>2.180000066757202</v>
+        <v>44.86999893188477</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -949,7 +969,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -958,10 +978,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>592</v>
+        <v>2471</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5199999809265137</v>
+        <v>2.180000066757202</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -988,7 +1008,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -997,10 +1017,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="H15" t="n">
-        <v>0.550000011920929</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1027,7 +1047,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1036,10 +1056,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1066,7 +1086,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1075,10 +1095,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>455</v>
+        <v>648</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1105,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1114,13 +1134,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15532</v>
+        <v>455</v>
       </c>
       <c r="H18" t="n">
-        <v>13.72000026702881</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1144,7 +1164,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1153,13 +1173,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13127</v>
+        <v>15532</v>
       </c>
       <c r="H19" t="n">
-        <v>11.59000015258789</v>
+        <v>13.72000026702881</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1183,7 +1203,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1192,13 +1212,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>22805</v>
+        <v>13127</v>
       </c>
       <c r="H20" t="n">
-        <v>20.13999938964844</v>
+        <v>11.59000015258789</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1242,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1231,13 +1251,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1351</v>
+        <v>22805</v>
       </c>
       <c r="H21" t="n">
-        <v>1.190000057220459</v>
+        <v>20.13999938964844</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1261,7 +1281,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1270,10 +1290,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1438</v>
+        <v>1351</v>
       </c>
       <c r="H22" t="n">
-        <v>1.269999980926514</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1281,11 +1301,11 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRAGA</t>
+          <t>BEJA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1300,7 +1320,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1309,13 +1329,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>33769</v>
+        <v>1438</v>
       </c>
       <c r="H23" t="n">
-        <v>8.510000228881836</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1339,7 +1359,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1348,13 +1368,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>55331</v>
+        <v>33769</v>
       </c>
       <c r="H24" t="n">
-        <v>13.94999980926514</v>
+        <v>8.510000228881836</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1378,7 +1398,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1387,13 +1407,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1400</v>
+        <v>55331</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3499999940395355</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1417,7 +1437,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1426,10 +1446,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1701</v>
+        <v>1400</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4300000071525574</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1456,7 +1476,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1465,10 +1485,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3583</v>
+        <v>1701</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1495,7 +1515,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1504,10 +1524,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1009</v>
+        <v>3583</v>
       </c>
       <c r="H28" t="n">
-        <v>0.25</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1534,7 +1554,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1543,13 +1563,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>130151</v>
+        <v>1009</v>
       </c>
       <c r="H29" t="n">
-        <v>32.81000137329102</v>
+        <v>0.25</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1573,7 +1593,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1582,13 +1602,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>66468</v>
+        <v>130151</v>
       </c>
       <c r="H30" t="n">
-        <v>16.76000022888184</v>
+        <v>32.81000137329102</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1632,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1621,13 +1641,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>86285</v>
+        <v>66468</v>
       </c>
       <c r="H31" t="n">
-        <v>21.75</v>
+        <v>16.76000022888184</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1651,7 +1671,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1660,13 +1680,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2723</v>
+        <v>86285</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6899999976158142</v>
+        <v>21.75</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1690,7 +1710,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1699,10 +1719,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2983</v>
+        <v>2723</v>
       </c>
       <c r="H33" t="n">
-        <v>0.75</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1710,11 +1730,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BRAGANÇA</t>
+          <t>BRAGA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1729,7 +1749,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1738,10 +1758,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4883</v>
+        <v>2983</v>
       </c>
       <c r="H34" t="n">
-        <v>5.309999942779541</v>
+        <v>0.75</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1768,7 +1788,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1777,13 +1797,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>15773</v>
+        <v>4883</v>
       </c>
       <c r="H35" t="n">
-        <v>17.13999938964844</v>
+        <v>5.309999942779541</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1807,7 +1827,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1816,13 +1836,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>463</v>
+        <v>15773</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5</v>
+        <v>17.13999938964844</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1846,7 +1866,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1855,10 +1875,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.5</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1885,7 +1905,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1894,10 +1914,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1485</v>
+        <v>445</v>
       </c>
       <c r="H38" t="n">
-        <v>1.610000014305115</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1924,7 +1944,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1933,10 +1953,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>487</v>
+        <v>1485</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5299999713897705</v>
+        <v>1.610000014305115</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1963,7 +1983,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1972,13 +1992,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>36037</v>
+        <v>487</v>
       </c>
       <c r="H40" t="n">
-        <v>39.15999984741211</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2002,7 +2022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2011,13 +2031,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6323</v>
+        <v>36037</v>
       </c>
       <c r="H41" t="n">
-        <v>6.869999885559082</v>
+        <v>39.15999984741211</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2041,7 +2061,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2050,13 +2070,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>20852</v>
+        <v>6323</v>
       </c>
       <c r="H42" t="n">
-        <v>22.65999984741211</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2080,7 +2100,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2089,13 +2109,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>833</v>
+        <v>20852</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9100000262260437</v>
+        <v>22.65999984741211</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2119,7 +2139,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2128,10 +2148,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2139,11 +2159,11 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CASTELO BRANCO</t>
+          <t>BRAGANÇA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2158,7 +2178,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2167,10 +2187,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>12575</v>
+        <v>796</v>
       </c>
       <c r="H45" t="n">
-        <v>8.939999580383301</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2197,7 +2217,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2206,10 +2226,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>13555</v>
+        <v>12575</v>
       </c>
       <c r="H46" t="n">
-        <v>9.630000114440918</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2236,7 +2256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2245,10 +2265,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>706</v>
+        <v>13555</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2275,7 +2295,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2284,10 +2304,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="H48" t="n">
-        <v>0.449999988079071</v>
+        <v>0.5</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2314,7 +2334,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2323,10 +2343,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2353,7 +2373,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2362,10 +2382,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>421</v>
+        <v>1300</v>
       </c>
       <c r="H50" t="n">
-        <v>0.300000011920929</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2392,7 +2412,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2401,13 +2421,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>43874</v>
+        <v>421</v>
       </c>
       <c r="H51" t="n">
-        <v>31.18000030517578</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2431,7 +2451,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2440,13 +2460,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>34383</v>
+        <v>43874</v>
       </c>
       <c r="H52" t="n">
-        <v>24.44000053405762</v>
+        <v>31.18000030517578</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2470,7 +2490,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2479,13 +2499,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>26073</v>
+        <v>34383</v>
       </c>
       <c r="H53" t="n">
-        <v>18.53000068664551</v>
+        <v>24.44000053405762</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2509,7 +2529,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2518,13 +2538,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>766</v>
+        <v>26073</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5400000214576721</v>
+        <v>18.53000068664551</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2548,7 +2568,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2557,10 +2577,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1457</v>
+        <v>766</v>
       </c>
       <c r="H55" t="n">
-        <v>1.039999961853027</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2568,11 +2588,11 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>COIMBRA</t>
+          <t>CASTELO BRANCO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2587,7 +2607,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2596,13 +2616,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>24989</v>
+        <v>1457</v>
       </c>
       <c r="H56" t="n">
-        <v>10.13000011444092</v>
+        <v>1.039999961853027</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2626,7 +2646,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2635,10 +2655,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>21208</v>
+        <v>24989</v>
       </c>
       <c r="H57" t="n">
-        <v>8.600000381469727</v>
+        <v>10.13000011444092</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -2665,7 +2685,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2674,13 +2694,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>672</v>
+        <v>21208</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2700000107288361</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2704,7 +2724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2713,10 +2733,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1123</v>
+        <v>672</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2743,7 +2763,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2752,10 +2772,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1630</v>
+        <v>1123</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2782,7 +2802,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2791,10 +2811,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1390</v>
+        <v>1630</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2821,7 +2841,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2830,13 +2850,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>72725</v>
+        <v>1390</v>
       </c>
       <c r="H62" t="n">
-        <v>29.47999954223633</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2860,7 +2880,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2869,13 +2889,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>41648</v>
+        <v>72725</v>
       </c>
       <c r="H63" t="n">
-        <v>16.8799991607666</v>
+        <v>29.47999954223633</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2899,7 +2919,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2908,13 +2928,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>70257</v>
+        <v>41648</v>
       </c>
       <c r="H64" t="n">
-        <v>28.47999954223633</v>
+        <v>16.8799991607666</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -2938,7 +2958,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2947,13 +2967,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1554</v>
+        <v>70257</v>
       </c>
       <c r="H65" t="n">
-        <v>0.6299999952316284</v>
+        <v>28.47999954223633</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -2977,7 +2997,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2986,10 +3006,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1967</v>
+        <v>1554</v>
       </c>
       <c r="H66" t="n">
-        <v>0.800000011920929</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2997,11 +3017,11 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ÉVORA</t>
+          <t>COIMBRA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3016,7 +3036,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3025,13 +3045,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>48680</v>
+        <v>1967</v>
       </c>
       <c r="H67" t="n">
-        <v>41.22000122070312</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3055,7 +3075,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3064,13 +3084,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3890</v>
+        <v>48680</v>
       </c>
       <c r="H68" t="n">
-        <v>3.289999961853027</v>
+        <v>41.22000122070312</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3094,7 +3114,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3103,10 +3123,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>345</v>
+        <v>3890</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2899999916553497</v>
+        <v>3.289999961853027</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3133,7 +3153,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3142,10 +3162,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>970</v>
+        <v>345</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8199999928474426</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3172,7 +3192,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3181,10 +3201,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>454</v>
+        <v>970</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3799999952316284</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3211,7 +3231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3220,10 +3240,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>312</v>
+        <v>454</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2599999904632568</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3250,7 +3270,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3259,13 +3279,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>22561</v>
+        <v>312</v>
       </c>
       <c r="H73" t="n">
-        <v>19.10000038146973</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3289,7 +3309,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3298,10 +3318,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>18707</v>
+        <v>22561</v>
       </c>
       <c r="H74" t="n">
-        <v>15.84000015258789</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -3328,7 +3348,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3337,10 +3357,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>16895</v>
+        <v>18707</v>
       </c>
       <c r="H75" t="n">
-        <v>14.3100004196167</v>
+        <v>15.84000015258789</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -3367,7 +3387,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3376,13 +3396,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>989</v>
+        <v>16895</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8399999737739563</v>
+        <v>14.3100004196167</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3406,7 +3426,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3415,10 +3435,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1292</v>
+        <v>989</v>
       </c>
       <c r="H77" t="n">
-        <v>1.090000033378601</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3426,11 +3446,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>ÉVORA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3445,7 +3465,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3454,13 +3474,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>30446</v>
+        <v>1292</v>
       </c>
       <c r="H78" t="n">
-        <v>15.35000038146973</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3484,7 +3504,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3493,13 +3513,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>12146</v>
+        <v>30446</v>
       </c>
       <c r="H79" t="n">
-        <v>6.119999885559082</v>
+        <v>15.35000038146973</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -3523,7 +3543,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3532,10 +3552,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>696</v>
+        <v>12146</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3499999940395355</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3562,7 +3582,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3571,10 +3591,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>898</v>
+        <v>696</v>
       </c>
       <c r="H81" t="n">
-        <v>0.449999988079071</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3601,7 +3621,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3610,10 +3630,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1308</v>
+        <v>898</v>
       </c>
       <c r="H82" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3640,7 +3660,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3649,10 +3669,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>950</v>
+        <v>1308</v>
       </c>
       <c r="H83" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3679,7 +3699,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3688,13 +3708,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>56238</v>
+        <v>950</v>
       </c>
       <c r="H84" t="n">
-        <v>28.36000061035156</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3718,7 +3738,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3727,13 +3747,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>40689</v>
+        <v>56238</v>
       </c>
       <c r="H85" t="n">
-        <v>20.52000045776367</v>
+        <v>28.36000061035156</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -3757,7 +3777,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3766,10 +3786,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>44180</v>
+        <v>40689</v>
       </c>
       <c r="H86" t="n">
-        <v>22.28000068664551</v>
+        <v>20.52000045776367</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -3796,7 +3816,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3805,13 +3825,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1407</v>
+        <v>44180</v>
       </c>
       <c r="H87" t="n">
-        <v>0.7099999785423279</v>
+        <v>22.28000068664551</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -3835,7 +3855,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3844,10 +3864,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3157</v>
+        <v>1407</v>
       </c>
       <c r="H88" t="n">
-        <v>1.590000033378601</v>
+        <v>0.7099999785423279</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -3855,11 +3875,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GUARDA</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3874,7 +3894,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3883,10 +3903,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6234</v>
+        <v>3157</v>
       </c>
       <c r="H89" t="n">
-        <v>5.239999771118164</v>
+        <v>1.590000033378601</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -3913,7 +3933,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3922,13 +3942,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>23139</v>
+        <v>6234</v>
       </c>
       <c r="H90" t="n">
-        <v>19.45000076293945</v>
+        <v>5.239999771118164</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3952,7 +3972,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3961,13 +3981,13 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>459</v>
+        <v>23139</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3899999856948853</v>
+        <v>19.45000076293945</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3991,7 +4011,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4000,10 +4020,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3600000143051147</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4030,7 +4050,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4039,10 +4059,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1830</v>
+        <v>433</v>
       </c>
       <c r="H93" t="n">
-        <v>1.539999961853027</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -4069,7 +4089,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4078,10 +4098,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>669</v>
+        <v>1830</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5600000023841858</v>
+        <v>1.539999961853027</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -4108,7 +4128,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4117,13 +4137,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>39984</v>
+        <v>669</v>
       </c>
       <c r="H95" t="n">
-        <v>33.61000061035156</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4147,7 +4167,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4156,13 +4176,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>12970</v>
+        <v>39984</v>
       </c>
       <c r="H96" t="n">
-        <v>10.89999961853027</v>
+        <v>33.61000061035156</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4186,7 +4206,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4195,13 +4215,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>27652</v>
+        <v>12970</v>
       </c>
       <c r="H97" t="n">
-        <v>23.25</v>
+        <v>10.89999961853027</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4225,7 +4245,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4234,13 +4254,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>711</v>
+        <v>27652</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6000000238418579</v>
+        <v>23.25</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -4264,7 +4284,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4273,10 +4293,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>961</v>
+        <v>711</v>
       </c>
       <c r="H99" t="n">
-        <v>0.8100000023841858</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4284,11 +4304,11 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LEIRIA</t>
+          <t>GUARDA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4303,7 +4323,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4312,13 +4332,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>19038</v>
+        <v>961</v>
       </c>
       <c r="H100" t="n">
-        <v>7.889999866485596</v>
+        <v>0.8100000023841858</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4342,7 +4362,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4351,10 +4371,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>29332</v>
+        <v>19038</v>
       </c>
       <c r="H101" t="n">
-        <v>12.14999961853027</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -4381,7 +4401,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4390,13 +4410,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>460</v>
+        <v>29332</v>
       </c>
       <c r="H102" t="n">
-        <v>0.1899999976158142</v>
+        <v>12.14999961853027</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4420,7 +4440,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4429,10 +4449,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="H103" t="n">
-        <v>0.2099999934434891</v>
+        <v>0.1899999976158142</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4459,7 +4479,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4468,10 +4488,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3145</v>
+        <v>502</v>
       </c>
       <c r="H104" t="n">
-        <v>1.299999952316284</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4498,7 +4518,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4507,10 +4527,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1079</v>
+        <v>3145</v>
       </c>
       <c r="H105" t="n">
-        <v>0.449999988079071</v>
+        <v>1.299999952316284</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4537,7 +4557,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4546,13 +4566,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>93193</v>
+        <v>1079</v>
       </c>
       <c r="H106" t="n">
-        <v>38.61000061035156</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I106" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4576,7 +4596,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4585,13 +4605,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>36830</v>
+        <v>93193</v>
       </c>
       <c r="H107" t="n">
-        <v>15.26000022888184</v>
+        <v>38.61000061035156</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -4615,7 +4635,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4624,10 +4644,10 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>47181</v>
+        <v>36830</v>
       </c>
       <c r="H108" t="n">
-        <v>19.54999923706055</v>
+        <v>15.26000022888184</v>
       </c>
       <c r="I108" t="n">
         <v>2</v>
@@ -4654,7 +4674,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4663,13 +4683,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1038</v>
+        <v>47181</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4300000071525574</v>
+        <v>19.54999923706055</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -4693,7 +4713,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4702,10 +4722,10 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2225</v>
+        <v>1038</v>
       </c>
       <c r="H110" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4713,11 +4733,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LISBOA</t>
+          <t>LEIRIA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4732,7 +4752,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4741,13 +4761,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>258808</v>
+        <v>2225</v>
       </c>
       <c r="H111" t="n">
-        <v>20.09000015258789</v>
+        <v>0.9200000166893005</v>
       </c>
       <c r="I111" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4771,7 +4791,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4780,13 +4800,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>104010</v>
+        <v>258808</v>
       </c>
       <c r="H112" t="n">
-        <v>8.069999694824219</v>
+        <v>20.09000015258789</v>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -4810,7 +4830,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4819,13 +4839,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3731</v>
+        <v>104010</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2899999916553497</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
@@ -4849,7 +4869,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4858,10 +4878,10 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6597</v>
+        <v>3731</v>
       </c>
       <c r="H114" t="n">
-        <v>0.5099999904632568</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4888,7 +4908,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4897,10 +4917,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2746</v>
+        <v>6597</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2099999934434891</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4927,7 +4947,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4936,13 +4956,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>273685</v>
+        <v>2746</v>
       </c>
       <c r="H116" t="n">
-        <v>21.25</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I116" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -4966,7 +4986,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4975,13 +4995,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>255030</v>
+        <v>273685</v>
       </c>
       <c r="H117" t="n">
-        <v>19.79999923706055</v>
+        <v>21.25</v>
       </c>
       <c r="I117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -5005,7 +5025,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5014,13 +5034,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>329783</v>
+        <v>255030</v>
       </c>
       <c r="H118" t="n">
-        <v>25.60000038146973</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="I118" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
@@ -5044,7 +5064,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5053,13 +5073,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7200</v>
+        <v>329783</v>
       </c>
       <c r="H119" t="n">
-        <v>0.5600000023841858</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -5083,7 +5103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5092,10 +5112,10 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>20758</v>
+        <v>7200</v>
       </c>
       <c r="H120" t="n">
-        <v>1.610000014305115</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -5103,11 +5123,11 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PORTALEGRE</t>
+          <t>LISBOA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5122,7 +5142,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5131,13 +5151,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>23539</v>
+        <v>20758</v>
       </c>
       <c r="H121" t="n">
-        <v>25.14999961853027</v>
+        <v>1.610000014305115</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5161,7 +5181,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5170,13 +5190,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4603</v>
+        <v>23539</v>
       </c>
       <c r="H122" t="n">
-        <v>4.920000076293945</v>
+        <v>25.14999961853027</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5200,7 +5220,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5209,10 +5229,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>387</v>
+        <v>4603</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4099999964237213</v>
+        <v>4.920000076293945</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -5239,7 +5259,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5248,10 +5268,10 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -5278,7 +5298,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5287,10 +5307,10 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>531</v>
+        <v>426</v>
       </c>
       <c r="H125" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -5317,7 +5337,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5326,10 +5346,10 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>308</v>
+        <v>531</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3300000131130219</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -5356,7 +5376,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5365,13 +5385,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>19546</v>
+        <v>308</v>
       </c>
       <c r="H127" t="n">
-        <v>20.8799991607666</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5395,7 +5415,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5404,13 +5424,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>17570</v>
+        <v>19546</v>
       </c>
       <c r="H128" t="n">
-        <v>18.77000045776367</v>
+        <v>20.8799991607666</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5434,7 +5454,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5443,13 +5463,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>22155</v>
+        <v>17570</v>
       </c>
       <c r="H129" t="n">
-        <v>23.67000007629395</v>
+        <v>18.77000045776367</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5473,7 +5493,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5482,13 +5502,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>834</v>
+        <v>22155</v>
       </c>
       <c r="H130" t="n">
-        <v>0.8899999856948853</v>
+        <v>23.67000007629395</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5512,7 +5532,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5521,10 +5541,10 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>924</v>
+        <v>834</v>
       </c>
       <c r="H131" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -5532,11 +5552,11 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PORTO</t>
+          <t>PORTALEGRE</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5551,7 +5571,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5560,13 +5580,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>111272</v>
+        <v>924</v>
       </c>
       <c r="H132" t="n">
-        <v>12.0600004196167</v>
+        <v>0.9900000095367432</v>
       </c>
       <c r="I132" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5590,7 +5610,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5599,13 +5619,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>89976</v>
+        <v>111272</v>
       </c>
       <c r="H133" t="n">
-        <v>9.75</v>
+        <v>12.0600004196167</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
@@ -5629,7 +5649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5638,13 +5658,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1415</v>
+        <v>89976</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1500000059604645</v>
+        <v>9.75</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -5668,7 +5688,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5677,10 +5697,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1910</v>
+        <v>1415</v>
       </c>
       <c r="H135" t="n">
-        <v>0.2099999934434891</v>
+        <v>0.1500000059604645</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -5707,7 +5727,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5716,10 +5736,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4556</v>
+        <v>1910</v>
       </c>
       <c r="H136" t="n">
-        <v>0.4900000095367432</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -5746,7 +5766,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5755,10 +5775,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2077</v>
+        <v>4556</v>
       </c>
       <c r="H137" t="n">
-        <v>0.2300000041723251</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -5785,7 +5805,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5794,13 +5814,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>270526</v>
+        <v>2077</v>
       </c>
       <c r="H138" t="n">
-        <v>29.31999969482422</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I138" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5824,7 +5844,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5833,13 +5853,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>188751</v>
+        <v>270526</v>
       </c>
       <c r="H139" t="n">
-        <v>20.45999908447266</v>
+        <v>29.31999969482422</v>
       </c>
       <c r="I139" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
@@ -5863,7 +5883,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5872,13 +5892,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>217356</v>
+        <v>188751</v>
       </c>
       <c r="H140" t="n">
-        <v>23.55999946594238</v>
+        <v>20.45999908447266</v>
       </c>
       <c r="I140" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
@@ -5902,7 +5922,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5911,13 +5931,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4440</v>
+        <v>217356</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4799999892711639</v>
+        <v>23.55999946594238</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
@@ -5941,7 +5961,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5950,10 +5970,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>9846</v>
+        <v>4440</v>
       </c>
       <c r="H142" t="n">
-        <v>1.070000052452087</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -5961,11 +5981,11 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SANTARÉM</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5980,7 +6000,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5989,13 +6009,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>45468</v>
+        <v>9846</v>
       </c>
       <c r="H143" t="n">
-        <v>16.38999938964844</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="I143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6019,7 +6039,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6028,13 +6048,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>21369</v>
+        <v>45468</v>
       </c>
       <c r="H144" t="n">
-        <v>7.699999809265137</v>
+        <v>16.38999938964844</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -6058,7 +6078,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6067,13 +6087,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1087</v>
+        <v>21369</v>
       </c>
       <c r="H145" t="n">
-        <v>0.3899999856948853</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -6097,7 +6117,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6106,10 +6126,10 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>922</v>
+        <v>1087</v>
       </c>
       <c r="H146" t="n">
-        <v>0.3300000131130219</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -6136,7 +6156,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6145,10 +6165,10 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1724</v>
+        <v>922</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6200000047683716</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -6175,7 +6195,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6184,10 +6204,10 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>813</v>
+        <v>1724</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2899999916553497</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -6214,7 +6234,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6223,13 +6243,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>77118</v>
+        <v>813</v>
       </c>
       <c r="H149" t="n">
-        <v>27.79000091552734</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6253,7 +6273,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6262,13 +6282,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>66099</v>
+        <v>77118</v>
       </c>
       <c r="H150" t="n">
-        <v>23.81999969482422</v>
+        <v>27.79000091552734</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -6292,7 +6312,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6301,13 +6321,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>51459</v>
+        <v>66099</v>
       </c>
       <c r="H151" t="n">
-        <v>18.54999923706055</v>
+        <v>23.81999969482422</v>
       </c>
       <c r="I151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -6331,7 +6351,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6340,13 +6360,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2357</v>
+        <v>51459</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8500000238418579</v>
+        <v>18.54999923706055</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -6370,7 +6390,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6379,10 +6399,10 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3091</v>
+        <v>2357</v>
       </c>
       <c r="H153" t="n">
-        <v>1.110000014305115</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -6390,11 +6410,11 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SETÚBAL</t>
+          <t>SANTARÉM</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6409,7 +6429,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6418,13 +6438,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>160702</v>
+        <v>3091</v>
       </c>
       <c r="H154" t="n">
-        <v>38.18999862670898</v>
+        <v>1.110000014305115</v>
       </c>
       <c r="I154" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -6448,7 +6468,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6457,13 +6477,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>16140</v>
+        <v>160702</v>
       </c>
       <c r="H155" t="n">
-        <v>3.839999914169312</v>
+        <v>38.18999862670898</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -6487,7 +6507,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6496,10 +6516,10 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1136</v>
+        <v>16140</v>
       </c>
       <c r="H156" t="n">
-        <v>0.2700000107288361</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -6526,7 +6546,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6535,10 +6555,10 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1543</v>
+        <v>1136</v>
       </c>
       <c r="H157" t="n">
-        <v>0.3700000047683716</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -6565,7 +6585,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6574,10 +6594,10 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1374</v>
+        <v>1543</v>
       </c>
       <c r="H158" t="n">
-        <v>0.3300000131130219</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -6604,7 +6624,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6613,10 +6633,10 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>987</v>
+        <v>1374</v>
       </c>
       <c r="H159" t="n">
-        <v>0.2300000041723251</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -6643,7 +6663,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6652,13 +6672,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>64674</v>
+        <v>987</v>
       </c>
       <c r="H160" t="n">
-        <v>15.36999988555908</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6682,7 +6702,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6691,13 +6711,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>85902</v>
+        <v>64674</v>
       </c>
       <c r="H161" t="n">
-        <v>20.40999984741211</v>
+        <v>15.36999988555908</v>
       </c>
       <c r="I161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -6721,7 +6741,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6730,13 +6750,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>69595</v>
+        <v>85902</v>
       </c>
       <c r="H162" t="n">
-        <v>16.54000091552734</v>
+        <v>20.40999984741211</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -6760,7 +6780,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6769,13 +6789,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2710</v>
+        <v>69595</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6399999856948853</v>
+        <v>16.54000091552734</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -6799,7 +6819,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6808,10 +6828,10 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8182</v>
+        <v>2710</v>
       </c>
       <c r="H164" t="n">
-        <v>1.940000057220459</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -6819,11 +6839,11 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>VIANA DO CASTELO</t>
+          <t>SETÚBAL</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6838,7 +6858,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6847,10 +6867,10 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>11591</v>
+        <v>8182</v>
       </c>
       <c r="H165" t="n">
-        <v>8.220000267028809</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -6877,7 +6897,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6886,13 +6906,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>23368</v>
+        <v>11591</v>
       </c>
       <c r="H166" t="n">
-        <v>16.56999969482422</v>
+        <v>8.220000267028809</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6916,7 +6936,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6925,13 +6945,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>663</v>
+        <v>23368</v>
       </c>
       <c r="H167" t="n">
-        <v>0.4699999988079071</v>
+        <v>16.56999969482422</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -6955,7 +6975,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6964,10 +6984,10 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>416</v>
+        <v>663</v>
       </c>
       <c r="H168" t="n">
-        <v>0.300000011920929</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -6994,7 +7014,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7003,10 +7023,10 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1508</v>
+        <v>416</v>
       </c>
       <c r="H169" t="n">
-        <v>1.070000052452087</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -7033,7 +7053,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -7042,10 +7062,10 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1055</v>
+        <v>1508</v>
       </c>
       <c r="H170" t="n">
-        <v>0.75</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -7072,7 +7092,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7081,13 +7101,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>47253</v>
+        <v>1055</v>
       </c>
       <c r="H171" t="n">
-        <v>33.5099983215332</v>
+        <v>0.75</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -7111,7 +7131,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7120,13 +7140,13 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>22904</v>
+        <v>47253</v>
       </c>
       <c r="H172" t="n">
-        <v>16.23999977111816</v>
+        <v>33.5099983215332</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -7150,7 +7170,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7159,10 +7179,10 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>25924</v>
+        <v>22904</v>
       </c>
       <c r="H173" t="n">
-        <v>18.38999938964844</v>
+        <v>16.23999977111816</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -7189,7 +7209,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7198,13 +7218,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>951</v>
+        <v>25924</v>
       </c>
       <c r="H174" t="n">
-        <v>0.6700000166893005</v>
+        <v>18.38999938964844</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -7228,7 +7248,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7237,10 +7257,10 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1348</v>
+        <v>951</v>
       </c>
       <c r="H175" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -7248,11 +7268,11 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>VILA REAL</t>
+          <t>VIANA DO CASTELO</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7267,7 +7287,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7276,10 +7296,10 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>11350</v>
+        <v>1348</v>
       </c>
       <c r="H176" t="n">
-        <v>8.640000343322754</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -7306,7 +7326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7315,13 +7335,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>30129</v>
+        <v>11350</v>
       </c>
       <c r="H177" t="n">
-        <v>22.95000076293945</v>
+        <v>8.640000343322754</v>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -7345,7 +7365,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7354,13 +7374,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>744</v>
+        <v>30129</v>
       </c>
       <c r="H178" t="n">
-        <v>0.5699999928474426</v>
+        <v>22.95000076293945</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -7384,7 +7404,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7393,10 +7413,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1108</v>
+        <v>744</v>
       </c>
       <c r="H179" t="n">
-        <v>0.8399999737739563</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -7423,7 +7443,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7432,10 +7452,10 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>7804</v>
+        <v>1108</v>
       </c>
       <c r="H180" t="n">
-        <v>5.940000057220459</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -7462,7 +7482,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7471,13 +7491,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>16375</v>
+        <v>7804</v>
       </c>
       <c r="H181" t="n">
-        <v>12.47000026702881</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7501,7 +7521,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7510,13 +7530,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>521</v>
+        <v>16375</v>
       </c>
       <c r="H182" t="n">
-        <v>0.4000000059604645</v>
+        <v>12.47000026702881</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7540,7 +7560,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7549,10 +7569,10 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>372</v>
+        <v>521</v>
       </c>
       <c r="H183" t="n">
-        <v>0.2800000011920929</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -7579,7 +7599,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7588,10 +7608,10 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1482</v>
+        <v>372</v>
       </c>
       <c r="H184" t="n">
-        <v>1.129999995231628</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -7618,7 +7638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7627,10 +7647,10 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>802</v>
+        <v>1482</v>
       </c>
       <c r="H185" t="n">
-        <v>0.6100000143051147</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -7657,7 +7677,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7666,22 +7686,22 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>55388</v>
+        <v>802</v>
       </c>
       <c r="H186" t="n">
-        <v>42.18000030517578</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>VISEU</t>
+          <t>VILA REAL</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7696,7 +7716,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7705,13 +7725,13 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>11180</v>
+        <v>55388</v>
       </c>
       <c r="H187" t="n">
-        <v>5.019999980926514</v>
+        <v>42.18000030517578</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -7735,7 +7755,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7744,13 +7764,13 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>44257</v>
+        <v>11180</v>
       </c>
       <c r="H188" t="n">
-        <v>19.8700008392334</v>
+        <v>5.019999980926514</v>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -7774,7 +7794,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7783,13 +7803,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>908</v>
+        <v>44257</v>
       </c>
       <c r="H189" t="n">
-        <v>0.4099999964237213</v>
+        <v>19.8700008392334</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190">
@@ -7813,7 +7833,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7822,10 +7842,10 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>858</v>
+        <v>908</v>
       </c>
       <c r="H190" t="n">
-        <v>0.3899999856948853</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -7852,7 +7872,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7861,10 +7881,10 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2753</v>
+        <v>858</v>
       </c>
       <c r="H191" t="n">
-        <v>1.240000009536743</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -7891,7 +7911,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7900,10 +7920,10 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1090</v>
+        <v>2753</v>
       </c>
       <c r="H192" t="n">
-        <v>0.4900000095367432</v>
+        <v>1.240000009536743</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -7930,7 +7950,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7939,13 +7959,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>83913</v>
+        <v>1090</v>
       </c>
       <c r="H193" t="n">
-        <v>37.66999816894531</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="I193" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7969,7 +7989,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7978,13 +7998,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>24163</v>
+        <v>83913</v>
       </c>
       <c r="H194" t="n">
-        <v>10.85000038146973</v>
+        <v>37.66999816894531</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -8008,7 +8028,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8017,13 +8037,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>44476</v>
+        <v>24163</v>
       </c>
       <c r="H195" t="n">
-        <v>19.96999931335449</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -8047,7 +8067,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8056,13 +8076,13 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>941</v>
+        <v>44476</v>
       </c>
       <c r="H196" t="n">
-        <v>0.4199999868869781</v>
+        <v>19.96999931335449</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -8086,7 +8106,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8095,10 +8115,10 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1439</v>
+        <v>941</v>
       </c>
       <c r="H197" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.4199999868869781</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -8106,11 +8126,11 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>VISEU</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -8125,7 +8145,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8134,10 +8154,10 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4532</v>
+        <v>1439</v>
       </c>
       <c r="H198" t="n">
-        <v>4.360000133514404</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -8149,7 +8169,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8188,7 +8208,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8203,7 +8223,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8212,10 +8232,10 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>6710</v>
+        <v>4532</v>
       </c>
       <c r="H200" t="n">
-        <v>6.460000038146973</v>
+        <v>4.360000133514404</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -8227,7 +8247,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8266,7 +8286,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8281,7 +8301,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8290,10 +8310,10 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>302</v>
+        <v>6710</v>
       </c>
       <c r="H202" t="n">
-        <v>0.2899999916553497</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -8305,7 +8325,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8344,7 +8364,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8359,7 +8379,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8368,10 +8388,10 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>770</v>
+        <v>302</v>
       </c>
       <c r="H204" t="n">
-        <v>0.7400000095367432</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -8383,7 +8403,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8422,7 +8442,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8437,7 +8457,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8446,10 +8466,10 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>533</v>
+        <v>770</v>
       </c>
       <c r="H206" t="n">
-        <v>0.5099999904632568</v>
+        <v>0.7400000095367432</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -8461,7 +8481,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8500,7 +8520,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8515,7 +8535,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8524,13 +8544,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>50137</v>
+        <v>533</v>
       </c>
       <c r="H208" t="n">
-        <v>48.2599983215332</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -8539,7 +8559,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8578,7 +8598,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8593,7 +8613,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8602,13 +8622,13 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>15780</v>
+        <v>50137</v>
       </c>
       <c r="H210" t="n">
-        <v>15.1899995803833</v>
+        <v>48.2599983215332</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -8617,7 +8637,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8656,7 +8676,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8671,7 +8691,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8680,10 +8700,10 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>20838</v>
+        <v>15780</v>
       </c>
       <c r="H212" t="n">
-        <v>20.05999946594238</v>
+        <v>15.1899995803833</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -8695,7 +8715,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8734,7 +8754,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8749,7 +8769,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8758,13 +8778,13 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>649</v>
+        <v>20838</v>
       </c>
       <c r="H214" t="n">
-        <v>0.6200000047683716</v>
+        <v>20.05999946594238</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -8773,7 +8793,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8812,7 +8832,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8827,7 +8847,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8836,10 +8856,10 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1192</v>
+        <v>649</v>
       </c>
       <c r="H216" t="n">
-        <v>1.149999976158142</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -8851,7 +8871,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8886,11 +8906,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MADEIRA</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8905,7 +8925,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8914,10 +8934,10 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3939</v>
+        <v>1192</v>
       </c>
       <c r="H218" t="n">
-        <v>3.240000009536743</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -8944,7 +8964,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8953,10 +8973,10 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>9463</v>
+        <v>3939</v>
       </c>
       <c r="H219" t="n">
-        <v>7.789999961853027</v>
+        <v>3.240000009536743</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -8983,7 +9003,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8992,10 +9012,10 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>475</v>
+        <v>9463</v>
       </c>
       <c r="H220" t="n">
-        <v>0.3899999856948853</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -9022,7 +9042,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -9031,10 +9051,10 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>704</v>
+        <v>475</v>
       </c>
       <c r="H221" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -9061,7 +9081,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -9070,10 +9090,10 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>527</v>
+        <v>704</v>
       </c>
       <c r="H222" t="n">
-        <v>0.4300000071525574</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -9100,7 +9120,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -9109,13 +9129,13 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>68928</v>
+        <v>527</v>
       </c>
       <c r="H223" t="n">
-        <v>56.7599983215332</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="I223" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -9139,7 +9159,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -9148,13 +9168,13 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>11723</v>
+        <v>68928</v>
       </c>
       <c r="H224" t="n">
-        <v>9.649999618530273</v>
+        <v>56.7599983215332</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225">
@@ -9178,7 +9198,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -9187,13 +9207,13 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>15976</v>
+        <v>11723</v>
       </c>
       <c r="H225" t="n">
-        <v>13.15999984741211</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -9217,7 +9237,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -9226,13 +9246,13 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>769</v>
+        <v>15976</v>
       </c>
       <c r="H226" t="n">
-        <v>0.6299999952316284</v>
+        <v>13.15999984741211</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -9256,7 +9276,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -9265,10 +9285,10 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6113</v>
+        <v>769</v>
       </c>
       <c r="H227" t="n">
-        <v>5.03000020980835</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -9276,11 +9296,11 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>MADEIRA</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9295,7 +9315,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -9304,13 +9324,13 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>898281</v>
+        <v>6113</v>
       </c>
       <c r="H228" t="n">
-        <v>15.48999977111816</v>
+        <v>5.03000020980835</v>
       </c>
       <c r="I228" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -9334,7 +9354,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -9343,13 +9363,13 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>577580</v>
+        <v>898281</v>
       </c>
       <c r="H229" t="n">
-        <v>9.960000038146973</v>
+        <v>15.48999977111816</v>
       </c>
       <c r="I229" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="230">
@@ -9373,7 +9393,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -9382,13 +9402,13 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>12749</v>
+        <v>577580</v>
       </c>
       <c r="H230" t="n">
-        <v>0.2199999988079071</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231">
@@ -9412,7 +9432,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -9421,10 +9441,10 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>19943</v>
+        <v>12749</v>
       </c>
       <c r="H231" t="n">
-        <v>0.3400000035762787</v>
+        <v>0.2199999988079071</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -9451,7 +9471,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -9460,10 +9480,10 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>41831</v>
+        <v>19943</v>
       </c>
       <c r="H232" t="n">
-        <v>0.7200000286102295</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -9490,7 +9510,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -9499,10 +9519,10 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>19085</v>
+        <v>41831</v>
       </c>
       <c r="H233" t="n">
-        <v>0.3300000131130219</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -9529,7 +9549,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9538,13 +9558,13 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1732288</v>
+        <v>19085</v>
       </c>
       <c r="H234" t="n">
-        <v>29.8700008392334</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="I234" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -9568,7 +9588,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -9577,13 +9597,13 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1038893</v>
+        <v>1732288</v>
       </c>
       <c r="H235" t="n">
-        <v>17.92000007629395</v>
+        <v>29.8700008392334</v>
       </c>
       <c r="I235" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="236">
@@ -9607,7 +9627,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -9616,13 +9636,13 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1204321</v>
+        <v>1038893</v>
       </c>
       <c r="H236" t="n">
-        <v>20.77000045776367</v>
+        <v>17.92000007629395</v>
       </c>
       <c r="I236" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="237">
@@ -9646,7 +9666,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -9655,13 +9675,13 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>35238</v>
+        <v>1204321</v>
       </c>
       <c r="H237" t="n">
-        <v>0.6100000143051147</v>
+        <v>20.77000045776367</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238">
@@ -9685,7 +9705,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -9694,10 +9714,10 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>73401</v>
+        <v>35238</v>
       </c>
       <c r="H238" t="n">
-        <v>1.269999980926514</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -9705,11 +9725,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>750040</v>
+        <v>230000</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9724,7 +9744,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -9733,10 +9753,10 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4417</v>
+        <v>73401</v>
       </c>
       <c r="H239" t="n">
-        <v>18.76000022888184</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -9763,7 +9783,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -9772,10 +9792,10 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4074</v>
+        <v>4417</v>
       </c>
       <c r="H240" t="n">
-        <v>17.30999946594238</v>
+        <v>18.76000022888184</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -9802,7 +9822,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9811,10 +9831,10 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>68</v>
+        <v>4074</v>
       </c>
       <c r="H241" t="n">
-        <v>0.2899999916553497</v>
+        <v>17.30999946594238</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -9841,7 +9861,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -9850,10 +9870,10 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="H242" t="n">
-        <v>0.949999988079071</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -9880,7 +9900,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -9889,10 +9909,10 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>486</v>
+        <v>223</v>
       </c>
       <c r="H243" t="n">
-        <v>2.059999942779541</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -9919,7 +9939,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -9928,10 +9948,10 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>109</v>
+        <v>486</v>
       </c>
       <c r="H244" t="n">
-        <v>0.4600000083446503</v>
+        <v>2.059999942779541</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -9958,7 +9978,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -9967,13 +9987,13 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5712</v>
+        <v>109</v>
       </c>
       <c r="H245" t="n">
-        <v>24.27000045776367</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -9997,7 +10017,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -10006,13 +10026,13 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1664</v>
+        <v>5712</v>
       </c>
       <c r="H246" t="n">
-        <v>7.070000171661377</v>
+        <v>24.27000045776367</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -10036,7 +10056,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -10045,13 +10065,13 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5700</v>
+        <v>1664</v>
       </c>
       <c r="H247" t="n">
-        <v>24.20999908447266</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -10075,7 +10095,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -10084,13 +10104,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>32</v>
+        <v>5700</v>
       </c>
       <c r="H248" t="n">
-        <v>0.1400000005960464</v>
+        <v>24.20999908447266</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -10114,7 +10134,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -10123,10 +10143,10 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="H249" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.1400000005960464</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -10134,11 +10154,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>750050</v>
+        <v>750040</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FORA DA EUROPA</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10153,7 +10173,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -10162,10 +10182,10 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>866</v>
+        <v>203</v>
       </c>
       <c r="H250" t="n">
-        <v>2.549999952316284</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -10192,7 +10212,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -10201,13 +10221,13 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>12889</v>
+        <v>866</v>
       </c>
       <c r="H251" t="n">
-        <v>37.91999816894531</v>
+        <v>2.549999952316284</v>
       </c>
       <c r="I251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -10231,7 +10251,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -10240,13 +10260,13 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>33</v>
+        <v>12889</v>
       </c>
       <c r="H252" t="n">
-        <v>0.1000000014901161</v>
+        <v>37.91999816894531</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -10270,7 +10290,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -10279,10 +10299,10 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H253" t="n">
-        <v>0.25</v>
+        <v>0.1000000014901161</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -10309,7 +10329,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -10318,10 +10338,10 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1396</v>
+        <v>84</v>
       </c>
       <c r="H254" t="n">
-        <v>4.110000133514404</v>
+        <v>0.25</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -10348,7 +10368,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -10357,10 +10377,10 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>41</v>
+        <v>1396</v>
       </c>
       <c r="H255" t="n">
-        <v>0.119999997317791</v>
+        <v>4.110000133514404</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -10387,7 +10407,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -10396,13 +10416,13 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>13768</v>
+        <v>41</v>
       </c>
       <c r="H256" t="n">
-        <v>40.5</v>
+        <v>0.119999997317791</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -10426,7 +10446,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -10435,13 +10455,13 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1131</v>
+        <v>13768</v>
       </c>
       <c r="H257" t="n">
-        <v>3.329999923706055</v>
+        <v>40.5</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -10465,7 +10485,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -10474,10 +10494,10 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2654</v>
+        <v>1131</v>
       </c>
       <c r="H258" t="n">
-        <v>7.809999942779541</v>
+        <v>3.329999923706055</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -10504,7 +10524,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -10513,10 +10533,10 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>35</v>
+        <v>2654</v>
       </c>
       <c r="H259" t="n">
-        <v>0.1000000014901161</v>
+        <v>7.809999942779541</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -10543,21 +10563,60 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
+          <t>PSR</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>35</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.1000000014901161</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>750050</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>FORA DA EUROPA</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>06/10/1985</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
           <t>UDP</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G260" t="n">
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
         <v>130</v>
       </c>
-      <c r="H260" t="n">
+      <c r="H261" t="n">
         <v>0.3799999952316284</v>
       </c>
-      <c r="I260" t="n">
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
